--- a/data/trans_orig/MOL_RUIDO_OCIO_DIA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_OCIO_DIA-Estudios-trans_orig.xlsx
@@ -561,12 +561,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>1,77</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,57</t>
+          <t>1,22; 2,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,3</t>
+          <t>1,32; 2,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 2,28</t>
+          <t>1,42; 2,26</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,32; 2,78</t>
+          <t>2,32; 2,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 2,57</t>
+          <t>2,12; 2,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,29; 2,61</t>
+          <t>2,27; 2,61</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 3,02</t>
+          <t>2,44; 3,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,53; 2,89</t>
+          <t>2,53; 2,9</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 2,7</t>
+          <t>2,32; 2,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,23; 2,56</t>
+          <t>2,23; 2,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 2,56</t>
+          <t>2,31; 2,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/MOL_RUIDO_OCIO_DIA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_OCIO_DIA-Estudios-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Molestia del ruido del ocio durante el día en el interior de la vivienda</t>
+          <t>Molestia del ruido del ocio durante el día en el interior de la vivienda (tasa de respuesta: 99,63%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/MOL_RUIDO_OCIO_DIA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_OCIO_DIA-Estudios-trans_orig.xlsx
@@ -579,12 +579,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,58</t>
+          <t>1,17; 2,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,4</t>
+          <t>1,32; 2,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,32; 2,79</t>
+          <t>2,3; 2,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,12; 2,6</t>
+          <t>2,12; 2,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 2,61</t>
+          <t>2,28; 2,6</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 3,01</t>
+          <t>2,41; 3,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 2,99</t>
+          <t>2,46; 2,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,53; 2,9</t>
+          <t>2,52; 2,9</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,23; 2,57</t>
+          <t>2,23; 2,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
